--- a/iselUssSyncV2/OutputWSL/20220517_1316_D60L474W90Q10.1U0.20H65G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1316_D60L474W90Q10.1U0.20H65G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>65.653650793650826</v>
+        <v>66.71147688060735</v>
       </c>
       <c r="F2" s="0">
-        <v>65.67670634920637</v>
+        <v>66.732279471736007</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>66.036190476190399</v>
+        <v>67.048341870612703</v>
       </c>
       <c r="F3" s="0">
-        <v>67.623809523809456</v>
+        <v>68.359466894327383</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>64.67511904761902</v>
+        <v>64.042976190476168</v>
       </c>
       <c r="F4" s="0">
-        <v>68.98047619047621</v>
+        <v>67.461785714285739</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>63.762549800796833</v>
+        <v>63.083227091633489</v>
       </c>
       <c r="F5" s="0">
-        <v>69.20402390438241</v>
+        <v>67.873784860557706</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>62.240438247012001</v>
+        <v>61.439366818440575</v>
       </c>
       <c r="F6" s="0">
-        <v>69.858804780876483</v>
+        <v>67.441900018971722</v>
       </c>
     </row>
     <row r="7">
@@ -222,9 +222,11 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>58.918730158730149</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>58.721150793650786</v>
+      </c>
+      <c r="F7" s="0">
+        <v>68.137777777777771</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -240,9 +242,11 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>52.988446215139433</v>
-      </c>
-      <c r="F8" s="0"/>
+        <v>52.787930342123559</v>
+      </c>
+      <c r="F8" s="0">
+        <v>68.295458167330651</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -258,10 +262,10 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>49.540238095238081</v>
+        <v>48.714246031746015</v>
       </c>
       <c r="F9" s="0">
-        <v>68.068214285714291</v>
+        <v>65.668214285714285</v>
       </c>
     </row>
     <row r="10">
@@ -277,9 +281,11 @@
       <c r="D10" s="0">
         <v>-106</v>
       </c>
-      <c r="E10" s="0"/>
+      <c r="E10" s="0">
+        <v>114.30207171314741</v>
+      </c>
       <c r="F10" s="0">
-        <v>34.021513944223116</v>
+        <v>31.324860557768936</v>
       </c>
     </row>
     <row r="11">
@@ -295,9 +301,11 @@
       <c r="D11" s="0">
         <v>-106</v>
       </c>
-      <c r="E11" s="0"/>
+      <c r="E11" s="0">
+        <v>59.010677290836682</v>
+      </c>
       <c r="F11" s="0">
-        <v>33.969243027888453</v>
+        <v>31.279840637450206</v>
       </c>
     </row>
     <row r="12">
@@ -313,9 +321,11 @@
       <c r="D12" s="0">
         <v>-106</v>
       </c>
-      <c r="E12" s="0"/>
+      <c r="E12" s="0">
+        <v>148.96864541832662</v>
+      </c>
       <c r="F12" s="0">
-        <v>33.876414342629481</v>
+        <v>31.222788844621512</v>
       </c>
     </row>
     <row r="13">
@@ -331,9 +341,11 @@
       <c r="D13" s="0">
         <v>-106</v>
       </c>
-      <c r="E13" s="0"/>
+      <c r="E13" s="0">
+        <v>134.54834945930557</v>
+      </c>
       <c r="F13" s="0">
-        <v>34.457131474103576</v>
+        <v>31.763242585214691</v>
       </c>
     </row>
     <row r="14">
@@ -350,10 +362,10 @@
         <v>-106</v>
       </c>
       <c r="E14" s="0">
-        <v>34.64654761904761</v>
+        <v>33.600611364067532</v>
       </c>
       <c r="F14" s="0">
-        <v>35.238373015873023</v>
+        <v>32.570962657307284</v>
       </c>
     </row>
     <row r="15">
@@ -370,10 +382,10 @@
         <v>-106</v>
       </c>
       <c r="E15" s="0">
-        <v>36.506573705179278</v>
+        <v>35.455383228988801</v>
       </c>
       <c r="F15" s="0">
-        <v>35.702788844621516</v>
+        <v>33.041439638272308</v>
       </c>
     </row>
     <row r="16">
@@ -390,10 +402,10 @@
         <v>-106</v>
       </c>
       <c r="E16" s="0">
-        <v>38.275079365079364</v>
+        <v>37.242261904761904</v>
       </c>
       <c r="F16" s="0">
-        <v>37.631825396825384</v>
+        <v>35.617658730158716</v>
       </c>
     </row>
     <row r="17">
@@ -410,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>41.663067729083664</v>
+        <v>41.31818677670271</v>
       </c>
       <c r="F17" s="0">
-        <v>37.965816733067726</v>
+        <v>35.400777050528042</v>
       </c>
     </row>
     <row r="18">
@@ -430,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>44.310557768924298</v>
+        <v>43.252819673686204</v>
       </c>
       <c r="F18" s="0">
-        <v>37.899123505976085</v>
+        <v>35.217972712325292</v>
       </c>
     </row>
     <row r="19">
@@ -450,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>45.375912698412691</v>
+        <v>44.335753968253961</v>
       </c>
       <c r="F19" s="0">
-        <v>38.168412698412688</v>
+        <v>35.511150793650778</v>
       </c>
     </row>
     <row r="20">
@@ -470,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>40.775000000000013</v>
+        <v>39.68793650793652</v>
       </c>
       <c r="F20" s="0">
-        <v>38.308253968253965</v>
+        <v>35.602976190476184</v>
       </c>
     </row>
     <row r="21">
@@ -490,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>33.142063492063485</v>
+        <v>32.09489217732245</v>
       </c>
       <c r="F21" s="0">
-        <v>38.346349206349217</v>
+        <v>35.704755580851213</v>
       </c>
     </row>
     <row r="22">
@@ -510,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>33.457777777777778</v>
+        <v>31.980396825396827</v>
       </c>
       <c r="F22" s="0">
-        <v>38.656706349206331</v>
+        <v>36.375277777777761</v>
       </c>
     </row>
     <row r="23">
@@ -530,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>36.830039840637433</v>
+        <v>35.312988047808751</v>
       </c>
       <c r="F23" s="0">
-        <v>38.52513944223108</v>
+        <v>35.825657370517931</v>
       </c>
     </row>
     <row r="24">
@@ -550,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>37.784999999999997</v>
+        <v>36.299661354581673</v>
       </c>
       <c r="F24" s="0">
-        <v>38.774999999999999</v>
+        <v>35.654203187250992</v>
       </c>
     </row>
     <row r="25">
@@ -570,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>36.550396825396831</v>
+        <v>35.715674603174605</v>
       </c>
       <c r="F25" s="0">
-        <v>38.573055555555555</v>
+        <v>36.255238095238091</v>
       </c>
     </row>
     <row r="26">
@@ -590,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>36.595697211155375</v>
+        <v>35.967490039840634</v>
       </c>
       <c r="F26" s="0">
-        <v>38.982191235059759</v>
+        <v>37.296573705179277</v>
       </c>
     </row>
     <row r="27">
@@ -610,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>35.897896825396835</v>
+        <v>35.219291247707588</v>
       </c>
       <c r="F27" s="0">
-        <v>38.912896825396821</v>
+        <v>37.421183677986463</v>
       </c>
     </row>
     <row r="28">
@@ -630,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>37.584444444444429</v>
+        <v>37.429206349206332</v>
       </c>
       <c r="F28" s="0">
-        <v>38.700753968253956</v>
+        <v>37.294960317460301</v>
       </c>
     </row>
     <row r="29">
@@ -650,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>39.238525896414338</v>
+        <v>38.578962404350847</v>
       </c>
       <c r="F29" s="0">
-        <v>38.855418326693226</v>
+        <v>37.391648485423389</v>
       </c>
     </row>
     <row r="30">
@@ -670,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>38.417341269841266</v>
+        <v>38.230436507936503</v>
       </c>
       <c r="F30" s="0">
-        <v>38.280793650793647</v>
+        <v>37.687738095238089</v>
       </c>
     </row>
   </sheetData>
